--- a/Radiotechnics_Labs/6_sem/Lab28/РТ лаба.xlsx
+++ b/Radiotechnics_Labs/6_sem/Lab28/РТ лаба.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexn\Documents\GitHub\Labs\Radiotechnics_Labs\6_sem\Lab28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b566d95faa460c8a/GitHub/Labs/Radiotechnics_Labs/6_sem/Lab28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C57B16-383D-4762-81D3-53F36023FF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{C4C57B16-383D-4762-81D3-53F36023FF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BAF1B57C-04EB-4BEC-BBFC-27A06599620B}"/>
   <bookViews>
-    <workbookView xWindow="4748" yWindow="712" windowWidth="17512" windowHeight="13598" xr2:uid="{B5517199-182B-4526-9411-7A2CEC385A30}"/>
+    <workbookView xWindow="-8400" yWindow="5460" windowWidth="17513" windowHeight="13598" activeTab="1" xr2:uid="{B5517199-182B-4526-9411-7A2CEC385A30}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Данные об авторе" sheetId="2" r:id="rId1"/>
+    <sheet name="Эксперимент" sheetId="1" r:id="rId2"/>
+    <sheet name="Теория" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
-  <si>
-    <t>Uk</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Uб</t>
   </si>
@@ -54,9 +53,6 @@
     <t>Эксперимент 3</t>
   </si>
   <si>
-    <t>Uвых_макс</t>
-  </si>
-  <si>
     <t>В</t>
   </si>
   <si>
@@ -75,30 +71,18 @@
     <t>Uкэ</t>
   </si>
   <si>
-    <t>Найдем граничную частоту - ту, где нпряжние падает в sqrt(2) раз</t>
-  </si>
-  <si>
     <t>Iк</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>кОм</t>
   </si>
   <si>
     <t>Uп</t>
   </si>
   <si>
-    <t>2 мА</t>
-  </si>
-  <si>
     <t>h21e</t>
   </si>
   <si>
-    <t>Эксперимент 2</t>
-  </si>
-  <si>
     <t>Uк</t>
   </si>
   <si>
@@ -109,12 +93,72 @@
   </si>
   <si>
     <t>Uвых макс</t>
+  </si>
+  <si>
+    <t>мА</t>
+  </si>
+  <si>
+    <t>Ток РК</t>
+  </si>
+  <si>
+    <t>Ток базы</t>
+  </si>
+  <si>
+    <t>Rк</t>
+  </si>
+  <si>
+    <t>Полученные значения</t>
+  </si>
+  <si>
+    <t>Rб</t>
+  </si>
+  <si>
+    <t>Параметры установки</t>
+  </si>
+  <si>
+    <t>Результаты</t>
+  </si>
+  <si>
+    <t>Rвх</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Нехаев</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Создание отчета автоматизировано.</t>
+  </si>
+  <si>
+    <t>Рыжие клетки - названия значений. Белые клетки - клетки предусматривающие ввод значений. В бледно-синих клетках содержатся рассчтанные значения.</t>
+  </si>
+  <si>
+    <t>Внимание! Проверяйте размерности в серых клетках (их менять нельзя).</t>
+  </si>
+  <si>
+    <t>Rи</t>
+  </si>
+  <si>
+    <t>Эксперимент 2б</t>
+  </si>
+  <si>
+    <t>Эксперимент 2а</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,12 +169,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,8 +225,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -460,263 +548,551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803B9F7F-1056-41BE-B881-EF152198F2A2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC762AF-F6C5-44B6-A995-C48304F3FE2E}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
     <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.66</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>620</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5">
+        <f>(E4-B4)/(E5*1000)</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>5.2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5">
+        <f>(E4-B3)/(E3*1000)</f>
+        <v>1.5064516129032257E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0.66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2.4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8">
+        <f>H3/H4</f>
+        <v>132.76231263383298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2">
-        <v>620</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>5.2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>180</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>22</v>
       </c>
       <c r="B9">
         <v>3.5</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8">
+        <f>B9/(B10/1000)</f>
+        <v>152.17391304347825</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>620</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5">
+        <f>B9/(E9/1000)</f>
+        <v>70</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>76</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8">
+        <f>(E5*1000*(B10/1000/((E9/1000)-(B10/1000))))/1000</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>4.5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="8">
+        <f>B17/(B18/1000)</f>
+        <v>152.17391304347825</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <f>E10*2</f>
+        <v>1240</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5">
+        <f>B17/(E17/1000)</f>
+        <v>70</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>76</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="8">
+        <f>(E5*1000*(B18/1000/((E17/1000)-(B18/1000))))/1000</f>
+        <v>2.0444444444444443</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>180</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>4.5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>4.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>180</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="7">
+        <f>(B25/1000)/(B26/1000)</f>
+        <v>4.507042253521127</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
+      <c r="B26">
         <f>35.5/2</f>
         <v>17.75</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>2.4</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7">
+        <f>(B25/1000)/(E25/1000)</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>0.05</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
+      <c r="B27">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
         <f>35.5*0.7</f>
         <v>24.849999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
+        <f>(E5*1000*(B26/1000/((E25/1000)-(B26/1000))))/1000</f>
+        <v>1.3209302325581396</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>203</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
         <f>330*5</f>
         <v>1650</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4C0A4-CB39-400E-820B-A79ED3DB842D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Radiotechnics_Labs/6_sem/Lab28/РТ лаба.xlsx
+++ b/Radiotechnics_Labs/6_sem/Lab28/РТ лаба.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b566d95faa460c8a/GitHub/Labs/Radiotechnics_Labs/6_sem/Lab28/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexn\OneDrive\GitHub\Labs\Radiotechnics_Labs\6_sem\Lab28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{C4C57B16-383D-4762-81D3-53F36023FF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BAF1B57C-04EB-4BEC-BBFC-27A06599620B}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{C4C57B16-383D-4762-81D3-53F36023FF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A91D2020-14DC-483C-8A52-C0EFD736CFE9}"/>
   <bookViews>
-    <workbookView xWindow="-8400" yWindow="5460" windowWidth="17513" windowHeight="13598" activeTab="1" xr2:uid="{B5517199-182B-4526-9411-7A2CEC385A30}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{B5517199-182B-4526-9411-7A2CEC385A30}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные об авторе" sheetId="2" r:id="rId1"/>
     <sheet name="Эксперимент" sheetId="1" r:id="rId2"/>
-    <sheet name="Теория" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="54">
   <si>
     <t>Uб</t>
   </si>
@@ -150,6 +149,51 @@
   </si>
   <si>
     <t>Эксперимент 2а</t>
+  </si>
+  <si>
+    <t>Cэ</t>
+  </si>
+  <si>
+    <t>мкФ</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Uвых</t>
+  </si>
+  <si>
+    <t>Uвх</t>
+  </si>
+  <si>
+    <t>Kе</t>
+  </si>
+  <si>
+    <t>Ri, kOm</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>U, В</t>
+  </si>
+  <si>
+    <t>Теория 2а</t>
+  </si>
+  <si>
+    <t>Теория 2б</t>
+  </si>
+  <si>
+    <t>Теория 3</t>
+  </si>
+  <si>
+    <t>Cн, мкф</t>
+  </si>
+  <si>
+    <t>Rн</t>
   </si>
 </sst>
 </file>
@@ -157,7 +201,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -213,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,20 +265,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -250,6 +387,155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9649E4D-97B5-4FC0-ADD7-78C0B082A5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7443787" y="157162"/>
+          <a:ext cx="1143000" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59951A4B-760A-4740-91DE-C73F9384A081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7158038" y="2019301"/>
+          <a:ext cx="1876425" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C479AF-1322-49EC-83D2-7EF6143608F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="4881563"/>
+          <a:ext cx="2085975" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,7 +859,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
@@ -581,7 +867,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
@@ -595,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC762AF-F6C5-44B6-A995-C48304F3FE2E}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -608,491 +894,931 @@
     <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>0.66</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E3">
         <v>620</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>(E4-B4)/(E5*1000)</f>
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="3"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>5.2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>(E4-B3)/(E3*1000)</f>
         <v>1.5064516129032257E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="I4" s="3"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5">
         <v>2.4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f>H3/H4</f>
         <v>132.76231263383298</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="I5" s="3"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="14"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" s="14"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="21"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>3.5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>50</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8">
-        <f>B9/(B10/1000)</f>
+      <c r="H13" s="7">
+        <f>B13/(B14/1000)</f>
         <v>152.17391304347825</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="I13" s="3"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13">
+        <v>2000</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13">
+        <v>2.4</v>
+      </c>
+      <c r="U13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13">
+        <v>130</v>
+      </c>
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>620</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5">
-        <f>B9/(E9/1000)</f>
+      <c r="H14" s="4">
+        <f>B13/(E13/1000)</f>
         <v>70</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="I14" s="3"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14">
+        <v>15.38461538</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14">
+        <v>470</v>
+      </c>
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14">
+        <v>60</v>
+      </c>
+      <c r="W14" s="12"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>76</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="8">
-        <f>(E5*1000*(B10/1000/((E9/1000)-(B10/1000))))/1000</f>
+      <c r="H15" s="7">
+        <f>(E5*1000*(B14/1000/((E13/1000)-(B14/1000))))/1000</f>
         <v>2.0444444444444443</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="N15" s="12"/>
+      <c r="O15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>72</v>
+      </c>
+      <c r="R15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15">
+        <v>2.4</v>
+      </c>
+      <c r="U15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15" s="12"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>180</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="N16" s="12"/>
+      <c r="O16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>205000</v>
+      </c>
+      <c r="R16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="W16" s="12"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <v>4.5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="N17" s="12"/>
+      <c r="O17" s="14"/>
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A18" s="14"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="14"/>
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="12"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="21"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>3.5</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B21">
+        <v>5.8</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>50</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="8">
-        <f>B17/(B18/1000)</f>
-        <v>152.17391304347825</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="H21" s="7">
+        <f>B21/(B22/1000)</f>
+        <v>165.71428571428569</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21">
+        <v>1330</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21">
+        <v>940</v>
+      </c>
+      <c r="U21" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21">
+        <v>60</v>
+      </c>
+      <c r="W21" s="12"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18">
-        <f>E10*2</f>
+      <c r="E22">
+        <f>E14*2</f>
         <v>1240</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="5">
-        <f>B17/(E17/1000)</f>
-        <v>70</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="H22" s="4">
+        <f>B21/(E21/1000)</f>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22">
+        <v>22.166666670000001</v>
+      </c>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22">
+        <v>38</v>
+      </c>
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <v>76</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="8">
-        <f>(E5*1000*(B18/1000/((E17/1000)-(B18/1000))))/1000</f>
-        <v>2.0444444444444443</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="H23" s="7">
+        <f>(E5*1000*(B22/1000/((E21/1000)-(B22/1000))))/1000</f>
+        <v>5.6</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="N23" s="12"/>
+      <c r="O23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="U23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>180</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="N24" s="12"/>
+      <c r="O24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>300000</v>
+      </c>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B25" s="16">
         <v>4.5</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C25" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="6" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="5"/>
+      <c r="W28" s="21"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B25">
-        <v>80</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="6">
+        <f>(B29)/(B30/1000)</f>
+        <v>86.956521739130423</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29">
+        <v>1125</v>
+      </c>
+      <c r="R29" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="U29" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29">
+        <v>67</v>
+      </c>
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>34.5</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="7">
-        <f>(B25/1000)/(B26/1000)</f>
-        <v>4.507042253521127</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <f>35.5/2</f>
-        <v>17.75</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>620</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="6">
+        <f>(B29)/(E29/1000)</f>
+        <v>60</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30">
+        <v>16.79104478</v>
+      </c>
+      <c r="R30" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30">
+        <v>2.4</v>
+      </c>
+      <c r="U30" t="s">
+        <v>44</v>
+      </c>
+      <c r="V30">
+        <v>31</v>
+      </c>
+      <c r="W30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>2.4</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="6">
+        <f>(E5*1000*(B30/1000/((E29/1000)-(B30/1000))))/1000</f>
+        <v>5.3419354838709685</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+      <c r="U31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>270</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>105</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>335000</v>
+      </c>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f>330*5</f>
+        <v>1650</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26">
-        <v>2.4</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7">
-        <f>(B25/1000)/(E25/1000)</f>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>85</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="14"/>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A34" s="14"/>
+      <c r="D34">
         <f>35.5*0.7</f>
         <v>24.849999999999998</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="7">
-        <f>(E5*1000*(B26/1000/((E25/1000)-(B26/1000))))/1000</f>
-        <v>1.3209302325581396</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>203</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <f>330*5</f>
-        <v>1650</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="N34" s="12"/>
+      <c r="O34" s="14"/>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A35" s="14"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="14"/>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A36" s="14"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="14"/>
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4C0A4-CB39-400E-820B-A79ED3DB842D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Radiotechnics_Labs/6_sem/Lab28/РТ лаба.xlsx
+++ b/Radiotechnics_Labs/6_sem/Lab28/РТ лаба.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexn\OneDrive\GitHub\Labs\Radiotechnics_Labs\6_sem\Lab28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b566d95faa460c8a/GitHub/Labs/Radiotechnics_Labs/6_sem/Lab28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{C4C57B16-383D-4762-81D3-53F36023FF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A91D2020-14DC-483C-8A52-C0EFD736CFE9}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="13_ncr:1_{C4C57B16-383D-4762-81D3-53F36023FF2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{577E352E-4F13-4D8C-B39C-3FC120B5E763}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{B5517199-182B-4526-9411-7A2CEC385A30}"/>
+    <workbookView xWindow="4770" yWindow="743" windowWidth="17512" windowHeight="13597" activeTab="1" xr2:uid="{B5517199-182B-4526-9411-7A2CEC385A30}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные об авторе" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>Uб</t>
   </si>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC762AF-F6C5-44B6-A995-C48304F3FE2E}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
